--- a/src/analysis_examples/circadb/results_jtk/cosinor_10490894_e2f5_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10490894_e2f5_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18823334514287052, 0.30743408799552785]</t>
+          <t>[0.18943215899411692, 0.3062352741442814]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.312796421044538e-08</v>
+        <v>1.648577208079871e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.312796421044538e-08</v>
+        <v>1.648577208079871e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6289474781961548</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, -0.38994743648161645]</t>
+          <t>[-0.8805264694746171, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.981023768227175e-05</v>
+        <v>3.751782293837103e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.981023768227175e-05</v>
+        <v>3.751782293837103e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.4864033901575358</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4547882122122564, 0.5180185681028151]</t>
+          <t>[0.4547770209005134, 0.5180297594145581]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.801801801801926</v>
       </c>
       <c r="X2" t="n">
-        <v>1.737117117117195</v>
+        <v>1.681081081081153</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.866486486486655</v>
+        <v>3.922522522522698</v>
       </c>
     </row>
   </sheetData>
